--- a/res/archivos/ProductosMasivos.xlsx
+++ b/res/archivos/ProductosMasivos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/wcart/res/archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EBFA3A-9C24-8E43-9A63-A75134D878C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA6E4CC-49E8-694A-8D29-ED197F0C1A0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="520" windowWidth="25040" windowHeight="14200" xr2:uid="{859E69AF-2F2A-DF4A-A5AC-FE55AB81F25F}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25040" windowHeight="14200" xr2:uid="{859E69AF-2F2A-DF4A-A5AC-FE55AB81F25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>codigoProducto</t>
   </si>
@@ -67,6 +67,36 @@
   </si>
   <si>
     <t>agotado</t>
+  </si>
+  <si>
+    <t>cod001</t>
+  </si>
+  <si>
+    <t>marca Prueba</t>
+  </si>
+  <si>
+    <t>camara prueba</t>
+  </si>
+  <si>
+    <t>fotoprueba.png</t>
+  </si>
+  <si>
+    <t>foto2.png</t>
+  </si>
+  <si>
+    <t>foto3.jpg</t>
+  </si>
+  <si>
+    <t>foto4.jpeg</t>
+  </si>
+  <si>
+    <t>foto5.png</t>
+  </si>
+  <si>
+    <t>descripcio producto</t>
+  </si>
+  <si>
+    <t>SI O NO</t>
   </si>
 </sst>
 </file>
@@ -418,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37495973-EF9E-254F-9C66-79CA5AEB662C}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,6 +507,50 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>50000</v>
+      </c>
+      <c r="J2">
+        <v>55000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>5000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
